--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="transform_factors" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="affine3d" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="loss_params" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="plan1" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -158,7 +159,7 @@
     <t xml:space="preserve">mode</t>
   </si>
   <si>
-    <t xml:space="preserve">source</t>
+    <t xml:space="preserve">lbd</t>
   </si>
   <si>
     <t xml:space="preserve">fold</t>
@@ -167,7 +168,7 @@
     <t xml:space="preserve">spacing</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.8,0.8,3.0]</t>
+    <t xml:space="preserve">[0.8,0.8,1.5]</t>
   </si>
   <si>
     <t xml:space="preserve">[0.77,0.77,0.8]</t>
@@ -182,6 +183,18 @@
     <t xml:space="preserve">[1,1,2.5]</t>
   </si>
   <si>
+    <t xml:space="preserve">zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if True, src_dims are used first then cropped to patch_size. I have not found this to add to accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples_per_file</t>
+  </si>
+  <si>
     <t xml:space="preserve">src_dims</t>
   </si>
   <si>
@@ -206,15 +219,6 @@
     <t xml:space="preserve">[256,256,128]</t>
   </si>
   <si>
-    <t xml:space="preserve">zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samples_per_file</t>
-  </si>
-  <si>
     <t xml:space="preserve">patch_dim0</t>
   </si>
   <si>
@@ -227,16 +231,13 @@
     <t xml:space="preserve">[48,64,96,128]</t>
   </si>
   <si>
-    <t xml:space="preserve">class_ratios</t>
+    <t xml:space="preserve">fgbg_ratio</t>
   </si>
   <si>
     <t xml:space="preserve">[None,tumour]</t>
   </si>
   <si>
-    <t xml:space="preserve">[0,1,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this will bug if you have two values . Needs to turn this correctly into a list of strings</t>
+    <t xml:space="preserve">[4,2,2,2,2,2]</t>
   </si>
   <si>
     <t xml:space="preserve">fake_tumours</t>
@@ -251,10 +252,7 @@
     <t xml:space="preserve">expand_by</t>
   </si>
   <si>
-    <t xml:space="preserve">mini_batches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used by RandCropByPosNegLabeld transform in mode ‘source’</t>
+    <t xml:space="preserve">plan</t>
   </si>
   <si>
     <t xml:space="preserve">tune_p</t>
@@ -387,6 +385,30 @@
   </si>
   <si>
     <t xml:space="preserve">softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodesthick,nodes,tcianodeshort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lm_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8,.8,1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by_lbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_indices_exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by_patch</t>
   </si>
 </sst>
 </file>
@@ -503,7 +525,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -527,10 +549,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="8:8 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -883,17 +905,17 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.02"/>
   </cols>
@@ -960,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,36 +1015,25 @@
         <v>52</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>59</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E7" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1032,11 +1043,11 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="8" t="n">
-        <v>4</v>
+      <c r="E8" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1046,24 +1057,37 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="K9" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
@@ -1078,10 +1102,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>8</v>
@@ -1096,10 +1120,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>8</v>
@@ -1108,10 +1132,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1161,20 +1185,18 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>76</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1196,16 +1218,16 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="8:8 G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,13 +1241,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>4</v>
@@ -1233,119 +1255,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>82</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.1</v>
@@ -1356,55 +1378,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1414,7 +1436,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>24</v>
@@ -1446,14 +1468,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="8:8 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.04"/>
   </cols>
@@ -1475,66 +1497,66 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1547,13 +1569,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1582,14 +1604,14 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="8:8 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,24 +1631,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="0" t="n">
@@ -1635,7 +1657,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1647,19 +1669,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1683,4 +1705,114 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.77"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -552,7 +552,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -909,7 +909,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
@@ -1221,7 +1221,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
@@ -1471,7 +1471,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -1607,7 +1607,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
@@ -1718,7 +1718,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.77"/>
@@ -1776,9 +1776,6 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -390,7 +390,7 @@
     <t xml:space="preserve">datasources</t>
   </si>
   <si>
-    <t xml:space="preserve">nodesthick,nodes,tcianodeshort</t>
+    <t xml:space="preserve">nodesthick,nodes</t>
   </si>
   <si>
     <t xml:space="preserve">lm_groups</t>
@@ -552,7 +552,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -909,7 +909,7 @@
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
@@ -1221,7 +1221,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
@@ -1471,7 +1471,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -1607,7 +1607,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
@@ -1718,7 +1718,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.77"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="affine3d" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="loss_params" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="plan1" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="plan2" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -409,6 +410,9 @@
   </si>
   <si>
     <t xml:space="preserve">expand_by_patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
   </si>
 </sst>
 </file>
@@ -552,7 +556,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -905,11 +909,11 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
@@ -1192,7 +1196,7 @@
       <c r="B16" s="2"/>
       <c r="D16" s="8"/>
       <c r="E16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1221,7 +1225,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
@@ -1471,7 +1475,7 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -1607,7 +1611,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
@@ -1714,11 +1718,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.77"/>
@@ -1812,4 +1816,110 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -154,256 +154,235 @@
     <t xml:space="preserve">src_dest_labels</t>
   </si>
   <si>
-    <t xml:space="preserve">[0,0],[1,1]</t>
+    <t xml:space="preserve">fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if True, src_dims are used first then cropped to patch_size. I have not found this to add to accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samples_per_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[256,256,64]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[160,160,160]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[192,192,160]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[220,220,110]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[256,256,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[64,96,128,160,256]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_dim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[48,64,96,128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fgbg_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[None,tumour]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,2,2,2,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake_tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,1.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute value shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25],[.25,.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_monai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0.785]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20,0.2,0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate worsens dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15,0.15,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodesthick,nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lm_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8,.8,1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by_lbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_indices_exclude</t>
   </si>
   <si>
     <t xml:space="preserve">mode</t>
   </si>
   <si>
     <t xml:space="preserve">lbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.8,0.8,1.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,0.77,0.8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.77,0.77,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1,1,2.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if True, src_dims are used first then cropped to patch_size. I have not found this to add to accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">batch_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samples_per_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src_dims</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,96]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[256,256,64]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[160,160,160]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[192,192,160]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[220,220,110]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[256,256,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[64,96,128,160,256]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_dim1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[48,64,96,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgbg_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[None,tumour]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4,2,2,2,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake_tumours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tune_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,1.3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute value shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25],[.25,.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_monai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotate_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,0.785]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20,0.2,0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate worsens dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,0.15,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">softmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodesthick,nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lm_groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8,.8,1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by_lbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg_indices_exclude</t>
   </si>
   <si>
     <t xml:space="preserve">patch_overlap</t>
@@ -521,11 +500,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,10 +532,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="2:2 E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -907,13 +886,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
@@ -950,148 +929,136 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E6" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="B8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>63</v>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
@@ -1100,16 +1067,19 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>128</v>
+      <c r="E10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>8</v>
@@ -1118,91 +1088,43 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>96</v>
+      <c r="E11" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="2" t="n">
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1222,10 +1144,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="2:2 G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
@@ -1245,13 +1167,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>4</v>
@@ -1259,119 +1181,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.1</v>
@@ -1382,55 +1304,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1440,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>24</v>
@@ -1472,10 +1394,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="2:2 E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -1501,33 +1423,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1537,30 +1459,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1573,13 +1495,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1608,10 +1530,10 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="2:2 A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
@@ -1635,24 +1557,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="0" t="n">
@@ -1661,7 +1583,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1673,19 +1595,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1719,10 +1641,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+      <selection pane="topLeft" activeCell="C48" activeCellId="1" sqref="2:2 C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.77"/>
@@ -1750,28 +1672,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1779,20 +1701,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.25</v>
@@ -1800,7 +1722,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1826,10 +1748,10 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="2:2 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
@@ -1857,28 +1779,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1886,20 +1808,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.25</v>
@@ -1907,7 +1829,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -223,6 +223,15 @@
     <t xml:space="preserve">[0,1.]</t>
   </si>
   <si>
+    <t xml:space="preserve">cache_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
     <t xml:space="preserve">plan</t>
   </si>
   <si>
@@ -338,9 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">ce_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
   </si>
   <si>
     <t xml:space="preserve">lambda_ce</t>
@@ -532,10 +538,10 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="2:2 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
@@ -889,10 +895,10 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
@@ -1108,18 +1114,36 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="2" t="n">
+      <c r="B13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1144,10 +1168,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="2:2 G7"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
@@ -1167,13 +1191,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>4</v>
@@ -1181,119 +1205,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0.1</v>
@@ -1304,55 +1328,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1362,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>24</v>
@@ -1394,10 +1418,10 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="1" sqref="2:2 E7"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
@@ -1423,33 +1447,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1459,30 +1483,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1495,13 +1519,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1530,10 +1554,10 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="2:2 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
@@ -1557,24 +1581,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="0" t="n">
@@ -1583,7 +1607,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1595,19 +1619,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1641,10 +1665,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="1" sqref="2:2 C48"/>
+      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.77"/>
@@ -1672,28 +1696,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1701,20 +1725,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.25</v>
@@ -1722,7 +1746,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1748,10 +1772,10 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="2:2 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
@@ -1779,28 +1803,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1808,20 +1832,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.25</v>
@@ -1829,7 +1853,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -8,13 +8,15 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="model_params" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dataset_params" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="transform_factors" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="affine3d" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="loss_params" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="plan1" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="plan2" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="dataset_params" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="transform_factors" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="affine3d" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="loss_params" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="plan1" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="plan2" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="plan3" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="plan4" sheetId="9" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="128">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -398,6 +400,18 @@
   </si>
   <si>
     <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan1</t>
   </si>
 </sst>
 </file>
@@ -486,35 +500,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,8 +544,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -543,316 +663,316 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.001</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.0005</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="D7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="D8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="D10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="D12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="D14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="n">
+      <c r="D17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -888,62 +1008,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.03"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -951,199 +1071,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="D11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1161,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1173,228 +1293,228 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="15.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="B6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1411,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1423,115 +1543,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1547,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1559,85 +1679,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1658,101 +1778,108 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C48" activeCellId="0" sqref="C48"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1765,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1777,85 +1904,312 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">compiled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src_dest_labels</t>
   </si>
   <si>
     <t xml:space="preserve">fold</t>
@@ -1015,7 +1012,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1055,35 +1052,37 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="E4" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1094,7 +1093,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1107,48 +1106,52 @@
         <v>46</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1158,15 +1161,15 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1175,16 +1178,19 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>96</v>
+      <c r="E9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -1193,11 +1199,9 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>61</v>
+      <c r="E10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,67 +1209,49 @@
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="E11" s="1" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="B12" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>0.3</v>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1311,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1325,119 +1311,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1448,55 +1434,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1506,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1567,66 +1553,66 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1639,13 +1625,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1701,24 +1687,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1727,7 +1713,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1739,19 +1725,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1816,28 +1802,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1845,20 +1831,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -1866,7 +1852,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -1874,7 +1860,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
@@ -1930,28 +1916,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1959,20 +1945,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -1980,7 +1966,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2010,7 +1996,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,29 +2021,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2065,21 +2050,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2087,7 +2071,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2095,15 +2079,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
@@ -2155,29 +2139,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2185,21 +2169,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2207,7 +2191,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -192,223 +192,232 @@
     <t xml:space="preserve">[256,256,128]</t>
   </si>
   <si>
+    <t xml:space="preserve">fgbg_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[None,tumour]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,2,2,2,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake_tumours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cache_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tune_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,1.3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.0,1.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute value shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_ub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25],[.25,.5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise_monai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.7,2.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0.785]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.20,0.2,0.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translate worsens dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15,0.15,0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.,1.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda_dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodesthick,nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lm_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8,.8,1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg_indices_exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patch_overlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expand_by_patch</t>
+  </si>
+  <si>
     <t xml:space="preserve">patch_dim0</t>
   </si>
   <si>
-    <t xml:space="preserve">[64,96,128,160,256]</t>
-  </si>
-  <si>
     <t xml:space="preserve">patch_dim1</t>
   </si>
   <si>
-    <t xml:space="preserve">[48,64,96,128]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fgbg_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[None,tumour]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4,2,2,2,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fake_tumours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">random_sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cache_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ds_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tune_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.25,0.5],[1.5,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,1.3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1,-0.5],[0.5,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[-1.0,1.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute value shift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_ub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25],[.25,.5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise_monai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.5,1.0],[1.0,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.7,2.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rotate_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,0.785]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.20,0.2,0.35]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.05,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translate worsens dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.15,0.15,0.15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.,1.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce_weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lambda_dice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">softmax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodesthick,nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lm_groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8,.8,1.5</t>
+    <t xml:space="preserve">imported_folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imported_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSL.all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge_imported_labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan1</t>
   </si>
   <si>
     <t xml:space="preserve">expand_by_lbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg_indices_exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patch_overlap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expand_by_patch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source_plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan1</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1020,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1129,47 +1138,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>128</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>96</v>
-      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1182,12 +1165,12 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -1206,10 +1189,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1221,34 +1204,46 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C13" s="0"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="8"/>
       <c r="E14" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="3"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1273,7 +1268,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1297,13 +1292,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1311,119 +1306,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1434,55 +1429,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1492,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1553,33 +1548,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1589,30 +1584,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1625,13 +1620,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1687,24 +1682,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1713,7 +1708,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1725,19 +1720,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1768,10 +1763,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1802,28 +1797,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1831,20 +1826,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -1852,7 +1847,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -1864,6 +1859,22 @@
       </c>
       <c r="B10" s="1" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1882,16 +1893,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="11.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,65 +1927,119 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1988,10 +2056,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2021,28 +2089,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2050,20 +2118,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2071,7 +2139,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2079,10 +2147,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,6 +2159,22 @@
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2195,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2139,29 +2223,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2169,21 +2253,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2191,7 +2275,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">patch_dim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dest_labels</t>
   </si>
   <si>
     <t xml:space="preserve">imported_folder</t>
@@ -1021,7 +1024,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1218,15 +1221,15 @@
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="0"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="0"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
@@ -1268,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1763,10 +1766,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1875,6 +1878,11 @@
       </c>
       <c r="B12" s="1" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1893,19 +1901,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="10" style="1" width="11.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +1935,6 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1936,13 +1943,11 @@
       <c r="B2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -1951,13 +1956,11 @@
       <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1966,7 +1969,6 @@
       <c r="B6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1975,7 +1977,6 @@
       <c r="B7" s="1" t="n">
         <v>0.25</v>
       </c>
-      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -1984,7 +1985,6 @@
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -1993,35 +1993,31 @@
       <c r="B9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="0"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="0"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -2037,6 +2033,11 @@
       </c>
       <c r="B14" s="1" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2056,10 +2057,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2092,7 +2093,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,7 +2127,7 @@
         <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,10 +2148,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,6 +2176,11 @@
       </c>
       <c r="B13" s="1" t="n">
         <v>96</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2193,10 +2199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2226,7 +2232,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +2251,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2279,6 +2285,11 @@
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -219,7 +219,13 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">plan</t>
+    <t xml:space="preserve">plan_train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan_valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the plan used to create validation dataset regardless of which plan training dataset is from. This ensures dice scores of validation ds are comparable across plans</t>
   </si>
   <si>
     <t xml:space="preserve">tune_p</t>
@@ -1023,8 +1029,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1247,6 +1253,17 @@
       <c r="I14" s="6"/>
       <c r="J14" s="3"/>
       <c r="K14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1295,13 +1312,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1309,119 +1326,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1432,55 +1449,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1490,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1551,33 +1568,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1587,30 +1604,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1623,13 +1640,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1685,12 +1702,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1702,7 +1719,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1711,7 +1728,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1723,19 +1740,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1800,28 +1817,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1829,20 +1846,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -1850,7 +1867,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -1866,7 +1883,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>128</v>
@@ -1874,15 +1891,15 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1938,41 +1955,41 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.25</v>
@@ -1980,7 +1997,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
@@ -1996,23 +2013,23 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2021,7 +2038,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>128</v>
@@ -2029,7 +2046,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>96</v>
@@ -2037,7 +2054,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2090,28 +2107,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2119,20 +2136,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2140,7 +2157,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2148,10 +2165,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2181,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>128</v>
@@ -2172,7 +2189,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>96</v>
@@ -2180,7 +2197,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2201,8 +2218,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2229,29 +2246,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2259,21 +2276,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2281,7 +2298,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2289,7 +2306,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1921,7 +1921,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmdb</t>
   </si>
   <si>
     <t xml:space="preserve">plan_train</t>
@@ -1030,7 +1033,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1229,7 +1232,9 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1239,7 +1244,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
@@ -1256,13 +1261,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1312,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1326,119 +1331,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1449,55 +1454,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1507,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1568,33 +1573,33 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1604,30 +1609,30 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1640,13 +1645,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1702,12 +1707,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1719,7 +1724,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1728,7 +1733,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1740,19 +1745,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1817,28 +1822,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1846,20 +1851,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -1867,7 +1872,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -1883,7 +1888,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>128</v>
@@ -1891,7 +1896,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>96</v>
@@ -1899,7 +1904,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1955,41 +1960,41 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.25</v>
@@ -1997,7 +2002,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
@@ -2013,23 +2018,23 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2038,7 +2043,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>128</v>
@@ -2046,7 +2051,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>96</v>
@@ -2054,7 +2059,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2107,28 +2112,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2136,20 +2141,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2157,7 +2162,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2165,10 +2170,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,7 +2186,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>128</v>
@@ -2189,7 +2194,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>96</v>
@@ -2197,7 +2202,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2246,29 +2251,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2276,21 +2281,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2298,7 +2303,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2306,7 +2311,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -408,7 +408,7 @@
     <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1088</t>
   </si>
   <si>
-    <t xml:space="preserve">imported_labels</t>
+    <t xml:space="preserve">remapping</t>
   </si>
   <si>
     <t xml:space="preserve">TSL.all</t>
@@ -1032,7 +1032,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1925,8 +1925,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="133">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmdb</t>
   </si>
   <si>
     <t xml:space="preserve">plan_train</t>
@@ -1032,8 +1029,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,9 +1229,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1244,7 +1239,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
@@ -1261,13 +1256,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1317,13 +1312,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1331,119 +1326,119 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>0.1</v>
@@ -1454,55 +1449,55 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1512,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -1573,66 +1568,66 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1645,13 +1640,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1707,12 +1702,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1724,7 +1719,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="n">
@@ -1733,7 +1728,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1745,19 +1740,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -1822,28 +1817,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -1851,20 +1846,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -1872,7 +1867,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -1888,7 +1883,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>128</v>
@@ -1896,7 +1891,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>96</v>
@@ -1904,7 +1899,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +1920,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1960,41 +1955,41 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0.25</v>
@@ -2002,7 +1997,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
@@ -2018,23 +2013,23 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2043,7 +2038,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>128</v>
@@ -2051,7 +2046,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>96</v>
@@ -2059,7 +2054,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2112,28 +2107,28 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2141,20 +2136,20 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2162,7 +2157,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2170,10 +2165,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,7 +2181,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>128</v>
@@ -2194,7 +2189,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>96</v>
@@ -2202,7 +2197,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2251,29 +2246,29 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -2281,21 +2276,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0.25</v>
@@ -2303,7 +2298,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -2311,7 +2306,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">/s/fran_storage/predictions/totalseg/LITS-1088</t>
   </si>
   <si>
-    <t xml:space="preserve">remapping</t>
+    <t xml:space="preserve">remapping_imported</t>
   </si>
   <si>
     <t xml:space="preserve">TSL.all</t>
@@ -1029,7 +1029,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1920,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -408,7 +408,7 @@
     <t xml:space="preserve">remapping_imported</t>
   </si>
   <si>
-    <t xml:space="preserve">TSL.all</t>
+    <t xml:space="preserve">TSL.all,TSL.all</t>
   </si>
   <si>
     <t xml:space="preserve">merge_imported_labels</t>
@@ -1029,7 +1029,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1920,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="162">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -67,12 +67,12 @@
     <t xml:space="preserve">choice</t>
   </si>
   <si>
+    <t xml:space="preserve">nnUNet</t>
+  </si>
+  <si>
     <t xml:space="preserve">SwinUNETR</t>
   </si>
   <si>
-    <t xml:space="preserve">nnUNet</t>
-  </si>
-  <si>
     <t xml:space="preserve">DynUNet</t>
   </si>
   <si>
@@ -271,9 +271,6 @@
     <t xml:space="preserve">ds_type</t>
   </si>
   <si>
-    <t xml:space="preserve">lmdb</t>
-  </si>
-  <si>
     <t xml:space="preserve">plan_train</t>
   </si>
   <si>
@@ -502,6 +499,12 @@
     <t xml:space="preserve">remapping_lbd</t>
   </si>
   <si>
+    <t xml:space="preserve">use_fg_indices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
     <t xml:space="preserve">plan2</t>
   </si>
   <si>
@@ -509,14 +512,18 @@
   </si>
   <si>
     <t xml:space="preserve">plan4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -598,7 +605,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,6 +615,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -857,16 +872,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,85 +1140,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="E2 J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.9375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="17.77"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
@@ -1212,16 +1233,16 @@
         <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1229,61 +1250,69 @@
         <v>47</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="V2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="V3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -1292,16 +1321,16 @@
         <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1309,21 +1338,25 @@
         <v>22</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="V4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -1332,18 +1365,69 @@
         <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="T5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V7" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1364,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="E2 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1532,27 +1616,21 @@
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1573,8 +1651,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1590,13 +1668,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1607,114 +1685,114 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>0.1</v>
@@ -1725,53 +1803,53 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>0</v>
@@ -1780,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
@@ -1810,8 +1888,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1833,32 +1911,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -1867,29 +1945,29 @@
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -1900,13 +1978,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -1933,8 +2011,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1956,12 +2034,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -1969,7 +2047,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1977,7 +2055,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -1988,18 +2066,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -2026,8 +2104,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2054,28 +2132,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -2083,28 +2161,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -2120,23 +2198,23 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2157,8 +2235,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2185,49 +2263,49 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
@@ -2243,23 +2321,23 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>32</v>
@@ -2267,23 +2345,23 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2304,8 +2382,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2332,28 +2410,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -2361,28 +2439,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -2390,10 +2468,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,23 +2484,23 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2443,8 +2521,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2471,28 +2549,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>32</v>
@@ -2500,28 +2578,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -2529,7 +2607,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="159">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -505,16 +505,7 @@
     <t xml:space="preserve">source</t>
   </si>
   <si>
-    <t xml:space="preserve">plan2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan5</t>
+    <t xml:space="preserve">TSL.label_localiser,TSL.label_localiser</t>
   </si>
 </sst>
 </file>
@@ -820,7 +811,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1142,13 +1133,13 @@
   </sheetPr>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="1" sqref="E2 J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="17.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="15.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,8 +1211,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>151</v>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>127</v>
@@ -1261,8 +1252,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>158</v>
+      <c r="A3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>127</v>
@@ -1308,8 +1299,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>159</v>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>148</v>
@@ -1352,12 +1343,15 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>160</v>
+      <c r="A5" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C5" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
@@ -1366,6 +1360,12 @@
       </c>
       <c r="J5" s="2" t="s">
         <v>134</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>136</v>
@@ -1384,8 +1384,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>161</v>
+      <c r="A6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>127</v>
@@ -1425,9 +1425,50 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="V7" s="4" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1490,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="E2 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1652,7 +1693,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1889,7 +1930,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2012,7 +2053,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2105,7 +2146,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2236,7 +2277,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2383,7 +2424,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2522,7 +2563,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E2 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t xml:space="preserve">source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSL.label_localiser,TSL.label_localiser</t>
   </si>
 </sst>
 </file>
@@ -811,11 +808,14 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="17.66"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1131,15 +1131,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="3" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,60 +1155,54 @@
         <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1220,33 +1216,30 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
+      <c r="H2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="R2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="T2" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1261,39 +1254,39 @@
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="P3" s="2" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="T3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1308,36 +1301,33 @@
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
+      <c r="H4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="R4" s="2" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="4" t="n">
+      <c r="T4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1352,33 +1342,27 @@
       <c r="C5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
+      <c r="H5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="T5" s="2" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="R5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="T5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1393,33 +1377,30 @@
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
+      <c r="H6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>192</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>192</v>
-      </c>
-      <c r="L6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="R6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="T6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1432,41 +1413,38 @@
         <v>127</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>144</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="R7" s="3" t="n">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="T7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="158">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -598,15 +598,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -808,310 +808,310 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="17.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1131,112 +1131,112 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:XFD8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="3" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="43.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T2" s="4" t="n">
@@ -1245,45 +1245,45 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T3" s="4" t="n">
@@ -1292,39 +1292,39 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="P4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="4" t="n">
@@ -1333,33 +1333,33 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="R5" s="2" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="R5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T5" s="4" t="n">
@@ -1368,36 +1368,36 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T6" s="4" t="n">
@@ -1406,47 +1406,75 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="XFC7" s="0"/>
+      <c r="XFD7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1474,181 +1502,181 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="G15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1677,215 +1705,215 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1914,101 +1942,101 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2037,71 +2065,71 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2130,109 +2158,109 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2261,125 +2289,125 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2408,117 +2436,117 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2547,85 +2575,85 @@
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>142</v>
       </c>
     </row>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="158">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -808,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="N8:T8 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,10 +1131,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1448,11 +1448,9 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1475,6 +1473,22 @@
       </c>
       <c r="K8" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1495,8 +1509,8 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="N8:T8 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1698,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1935,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2058,8 +2072,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2151,8 +2165,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2282,8 +2296,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2429,8 +2443,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2568,8 +2582,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -809,7 +809,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="N8:T8 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="6:6 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8:T8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1377,6 +1377,7 @@
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
         <v>157</v>
       </c>
@@ -1507,10 +1508,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="N8:T8 E13"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="6:6 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1614,86 +1615,95 @@
         <v>69</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>78</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="E13" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>82</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1713,7 +1723,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1950,7 +1960,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2073,7 +2083,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,7 +2176,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2297,7 +2307,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2444,7 +2454,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2583,7 +2593,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="N8:T8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="160">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t xml:space="preserve">This is the plan used to create validation dataset regardless of which plan training dataset is from. This ensures dice scores of validation ds are comparable across plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dim0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src_dim1</t>
   </si>
   <si>
     <t xml:space="preserve">tune_p</t>
@@ -809,7 +815,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="6:6 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,8 +1139,8 @@
   </sheetPr>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="6:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1146,64 +1152,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,22 +1217,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1234,7 +1240,7 @@
         <v>47</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>4</v>
@@ -1249,39 +1255,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>4</v>
@@ -1296,22 +1302,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1319,10 +1325,10 @@
         <v>22</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>4</v>
@@ -1337,27 +1343,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>4</v>
@@ -1372,23 +1378,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1396,7 +1402,7 @@
         <v>47</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>4</v>
@@ -1411,36 +1417,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>4</v>
@@ -1455,34 +1461,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -1510,11 +1516,14 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="6:6 E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.78"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1673,7 +1682,7 @@
       <c r="B10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1700,6 +1709,22 @@
       </c>
       <c r="G13" s="3" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1723,7 +1748,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,13 +1764,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1756,114 +1781,114 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0.1</v>
@@ -1874,53 +1899,53 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
@@ -1929,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -1960,7 +1985,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1982,32 +2007,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -2016,29 +2041,29 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
@@ -2049,13 +2074,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -2083,7 +2108,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2105,12 +2130,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -2118,7 +2143,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -2126,7 +2151,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
@@ -2137,18 +2162,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -2176,7 +2201,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2203,28 +2228,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2232,28 +2257,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2269,23 +2294,23 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2332,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2334,49 +2359,49 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
@@ -2392,23 +2417,23 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
@@ -2416,23 +2441,23 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2454,7 +2479,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2481,28 +2506,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2510,28 +2535,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2539,10 +2564,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,23 +2580,23 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2618,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="6:6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2620,28 +2645,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2649,28 +2674,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2678,7 +2703,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="161">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$cold_storage_folder/predictions/totalseg/LITS-1088</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1261,7 +1264,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
@@ -1423,7 +1426,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>136</v>
@@ -1467,7 +1470,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>136</v>
@@ -1516,13 +1519,13 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="161">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -1140,10 +1140,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:XFD9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1500,6 +1500,50 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>192</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="XFC9" s="0"/>
+      <c r="XFD9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="160">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -269,9 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">ds_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plan_train</t>
   </si>
   <si>
     <t xml:space="preserve">plan_valid</t>
@@ -1140,10 +1137,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.11328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1155,64 +1152,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,22 +1217,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1243,7 +1240,7 @@
         <v>47</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>4</v>
@@ -1258,39 +1255,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>4</v>
@@ -1305,22 +1302,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1328,10 +1325,10 @@
         <v>22</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>4</v>
@@ -1346,27 +1343,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>4</v>
@@ -1381,23 +1378,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1405,7 +1402,7 @@
         <v>47</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>4</v>
@@ -1420,36 +1417,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>4</v>
@@ -1464,34 +1461,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -1506,34 +1503,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -1542,8 +1539,6 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="XFC9" s="0"/>
-      <c r="XFD9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1563,8 +1558,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1744,18 +1739,18 @@
         <v>80</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,17 +1758,10 @@
         <v>83</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="1" t="n">
         <v>128</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1795,10 +1783,14 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.38"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1811,13 +1803,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1828,114 +1820,114 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0.1</v>
@@ -1946,53 +1938,53 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
@@ -2001,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -2054,32 +2046,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -2088,29 +2080,29 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
@@ -2121,13 +2113,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -2177,12 +2169,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -2190,7 +2182,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -2198,7 +2190,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
@@ -2209,18 +2201,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -2275,28 +2267,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2304,28 +2296,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2341,23 +2333,23 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2406,49 +2398,49 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
@@ -2464,23 +2456,23 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
@@ -2488,23 +2480,23 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2553,28 +2545,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2582,28 +2574,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2611,10 +2603,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,23 +2619,23 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2684,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2721,28 +2713,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2750,7 +2742,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="161">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">ds_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plan_test</t>
   </si>
   <si>
     <t xml:space="preserve">plan_valid</t>
@@ -1152,64 +1155,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,22 +1220,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1240,7 +1243,7 @@
         <v>47</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>4</v>
@@ -1255,39 +1258,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>47</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>4</v>
@@ -1302,22 +1305,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1325,10 +1328,10 @@
         <v>22</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>4</v>
@@ -1343,27 +1346,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>4</v>
@@ -1378,23 +1381,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1402,7 +1405,7 @@
         <v>47</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>4</v>
@@ -1417,36 +1420,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>4</v>
@@ -1461,34 +1464,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -1503,34 +1506,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -1741,16 +1744,16 @@
       <c r="E12" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,10 +1761,17 @@
         <v>83</v>
       </c>
       <c r="E14" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -1803,13 +1813,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1820,114 +1830,114 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0.1</v>
@@ -1938,53 +1948,53 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
@@ -1993,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -2046,32 +2056,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
@@ -2080,29 +2090,29 @@
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
@@ -2113,13 +2123,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -2169,12 +2179,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -2182,7 +2192,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>22</v>
@@ -2190,7 +2200,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
@@ -2201,18 +2211,18 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
@@ -2267,28 +2277,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2296,28 +2306,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2333,23 +2343,23 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2398,49 +2408,49 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>32</v>
@@ -2456,23 +2466,23 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
@@ -2480,23 +2490,23 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2545,28 +2555,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2574,28 +2584,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2603,10 +2613,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,23 +2629,23 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2684,28 +2694,28 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -2713,28 +2723,28 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
@@ -2742,7 +2752,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="model_params" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="162">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -58,15 +58,51 @@
     <t xml:space="preserve">Unnamed: 8</t>
   </si>
   <si>
+    <t xml:space="preserve">Unnamed: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_ch_opts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[16,32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1e-4,5e-2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qloguniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep_supervision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[True,False]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">arch</t>
   </si>
   <si>
     <t xml:space="preserve">[ResidualUNet3D,UNet3D,VTUNet, nnUNet,SwinUNETR,DynUNet]</t>
   </si>
   <si>
-    <t xml:space="preserve">choice</t>
-  </si>
-  <si>
     <t xml:space="preserve">nnUNet</t>
   </si>
   <si>
@@ -76,13 +112,7 @@
     <t xml:space="preserve">DynUNet</t>
   </si>
   <si>
-    <t xml:space="preserve">base_ch_opts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16,32]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rrr</t>
+    <t xml:space="preserve">2.5D</t>
   </si>
   <si>
     <t xml:space="preserve">depth_opts</t>
@@ -97,36 +127,15 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">optimizer</t>
   </si>
   <si>
     <t xml:space="preserve">Adam</t>
   </si>
   <si>
-    <t xml:space="preserve">lr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1e-2,5e-4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qloguniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0005</t>
-  </si>
-  <si>
     <t xml:space="preserve">one_cycle</t>
   </si>
   <si>
-    <t xml:space="preserve">[True,False]</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -181,9 +190,6 @@
     <t xml:space="preserve">tune_region_id</t>
   </si>
   <si>
-    <t xml:space="preserve">deep_supervision</t>
-  </si>
-  <si>
     <t xml:space="preserve">self_attention</t>
   </si>
   <si>
@@ -191,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unnamed: 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 9</t>
   </si>
   <si>
     <t xml:space="preserve">Unnamed: 10</t>
@@ -815,15 +818,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="20.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,45 +859,36 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1</v>
@@ -900,30 +896,36 @@
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
@@ -931,70 +933,79 @@
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>0</v>
@@ -1008,120 +1019,120 @@
         <v>40</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1155,64 +1166,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,30 +1231,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>4</v>
@@ -1258,39 +1269,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>4</v>
@@ -1305,33 +1316,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>4</v>
@@ -1346,27 +1357,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>4</v>
@@ -1381,31 +1392,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>4</v>
@@ -1420,36 +1431,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>4</v>
@@ -1464,34 +1475,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -1506,34 +1517,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -1561,7 +1572,7 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1598,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -1599,133 +1610,133 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
@@ -1733,13 +1744,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>6</v>
@@ -1747,18 +1758,18 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>192</v>
@@ -1766,7 +1777,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>128</v>
@@ -1813,13 +1824,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1830,189 +1841,189 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2056,86 +2067,86 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2179,12 +2190,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -2192,43 +2203,43 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2277,89 +2288,89 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2408,105 +2419,105 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2555,97 +2566,97 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2694,65 +2705,65 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/configurations/experiment_configs_nodes.xlsx
+++ b/configurations/experiment_configs_nodes.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="161">
   <si>
     <t xml:space="preserve">var_name</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">qloguniform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001</t>
   </si>
   <si>
     <t xml:space="preserve">0.0005</t>
@@ -821,7 +818,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -893,19 +890,19 @@
       <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>12</v>
@@ -914,15 +911,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -931,61 +928,61 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -994,49 +991,49 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -1045,68 +1042,68 @@
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -1115,15 +1112,15 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -1132,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1166,64 +1163,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,30 +1228,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>4</v>
@@ -1269,39 +1266,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>4</v>
@@ -1316,33 +1313,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="P4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>4</v>
@@ -1357,27 +1354,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="R5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>4</v>
@@ -1392,31 +1389,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>4</v>
@@ -1431,36 +1428,36 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>4</v>
@@ -1475,34 +1472,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -1517,34 +1514,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>75</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>192</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -1598,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
@@ -1613,79 +1610,79 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -1694,18 +1691,18 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -1714,29 +1711,29 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>0</v>
@@ -1744,13 +1741,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>6</v>
@@ -1758,18 +1755,18 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>192</v>
@@ -1777,7 +1774,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>128</v>
@@ -1824,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1841,171 +1838,171 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0</v>
@@ -2014,16 +2011,16 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2067,86 +2064,86 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2190,12 +2187,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>0</v>
@@ -2203,43 +2200,43 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2288,89 +2285,89 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2419,105 +2416,105 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2566,97 +2563,97 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2705,65 +2702,65 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
